--- a/680 Quantitative Methods/linear_programming/Modeling/Pineapple Production/PineappleProduction.xlsx
+++ b/680 Quantitative Methods/linear_programming/Modeling/Pineapple Production/PineappleProduction.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="27610"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/680 Important/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bmccs\OneDrive\Desktop\optimization\680 Quantitative Methods\linear_programming\Modeling\Pineapple Production\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_14B3AEDC531D8116F724B13786022286C5019866" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{4115B661-D6DE-4E22-85EE-9E12E17EC50F}"/>
   <bookViews>
-    <workbookView xWindow="100" yWindow="520" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Pineapple Production" sheetId="1" r:id="rId1"/>
@@ -70,10 +71,16 @@
     <definedName name="TotalSliced">'Pineapple Production'!#REF!</definedName>
     <definedName name="TotalWhole">'Pineapple Production'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="150001" concurrentCalc="0"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
     </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -187,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -392,6 +399,9 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
@@ -413,7 +423,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000002000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr txBox="1"/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -739,24 +755,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:K30"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="F5" sqref="C3:F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.83203125" style="4"/>
-    <col min="2" max="2" width="18.83203125" style="4" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="11.6640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="6" max="8" width="10.83203125" style="4"/>
-    <col min="9" max="9" width="13.1640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="4"/>
+    <col min="1" max="1" width="10.796875" style="4"/>
+    <col min="2" max="2" width="18.796875" style="4" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.69921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="8" width="10.796875" style="4"/>
+    <col min="9" max="9" width="13.19921875" style="4" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.796875" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -786,7 +804,7 @@
       </c>
       <c r="K2" s="17"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
@@ -817,7 +835,7 @@
       </c>
       <c r="K3" s="17"/>
     </row>
-    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -848,7 +866,7 @@
       </c>
       <c r="K4" s="17"/>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
@@ -879,7 +897,7 @@
       </c>
       <c r="K5" s="17"/>
     </row>
-    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -898,7 +916,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -915,7 +933,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -932,7 +950,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -949,7 +967,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -964,15 +982,15 @@
       </c>
       <c r="F10" s="14"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
@@ -993,7 +1011,7 @@
         <v>43750000</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
@@ -1018,7 +1036,7 @@
         <v>24150000</v>
       </c>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
@@ -1027,12 +1045,12 @@
         <v>76350000</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B18" s="12" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B19" s="4" t="s">
         <v>18</v>
       </c>
@@ -1048,7 +1066,7 @@
         <v>40000</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C20" s="8">
         <f t="shared" ref="C20:C21" si="3">SUM(C4:F4)</f>
         <v>30000</v>
@@ -1061,7 +1079,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C21" s="8">
         <f t="shared" si="3"/>
         <v>45000</v>
@@ -1074,7 +1092,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B22" s="8" t="s">
         <v>21</v>
       </c>
@@ -1101,7 +1119,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
@@ -1121,7 +1139,7 @@
       </c>
       <c r="F23" s="8"/>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="15"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -1129,7 +1147,7 @@
       <c r="E24" s="8"/>
       <c r="F24" s="8"/>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
@@ -1148,7 +1166,7 @@
         <v>30000000</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
@@ -1167,7 +1185,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B27" s="4" t="s">
         <v>29</v>
       </c>
@@ -1182,7 +1200,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B28" s="4" t="s">
         <v>30</v>
       </c>
@@ -1197,7 +1215,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B29" s="4" t="s">
         <v>31</v>
       </c>
@@ -1212,7 +1230,7 @@
         <v>10000000</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B30" s="4" t="s">
         <v>32</v>
       </c>
